--- a/var_info/indv_panel_var_info/TWINLIFE_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/TWINLIFE_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED9DF71-9497-524B-91F8-B2E736A99945}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1075CA-A633-5B47-A499-6787537B5CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <sheet name="PanelInfo" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="124">
   <si>
     <t>ord</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>alc</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -1253,11 +1256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H62" sqref="H62:H68"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1267,7 +1270,7 @@
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -1311,10 +1314,13 @@
         <v>67</v>
       </c>
       <c r="O1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1348,8 +1354,11 @@
       <c r="K2">
         <v>365</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1383,8 +1392,11 @@
       <c r="K3">
         <v>365</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1418,8 +1430,11 @@
       <c r="N4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1453,8 +1468,11 @@
       <c r="N5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1488,8 +1506,11 @@
       <c r="K6">
         <v>365</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1523,8 +1544,11 @@
       <c r="K7">
         <v>365</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1558,8 +1582,11 @@
       <c r="K8">
         <v>365</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1593,8 +1620,11 @@
       <c r="K9">
         <v>365</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1628,8 +1658,11 @@
       <c r="N10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1663,8 +1696,11 @@
       <c r="N11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1695,8 +1731,11 @@
       <c r="K12">
         <v>365</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1727,8 +1766,11 @@
       <c r="K13">
         <v>365</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1762,8 +1804,11 @@
       <c r="N14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1797,8 +1842,11 @@
       <c r="N15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1832,8 +1880,11 @@
       <c r="N16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1867,8 +1918,11 @@
       <c r="N17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1899,8 +1953,11 @@
       <c r="K18">
         <v>365</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1931,8 +1988,11 @@
       <c r="K19">
         <v>365</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1966,8 +2026,11 @@
       <c r="N20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2001,8 +2064,11 @@
       <c r="N21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2033,8 +2099,11 @@
       <c r="K22">
         <v>365</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2065,8 +2134,11 @@
       <c r="K23">
         <v>365</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2097,8 +2169,11 @@
       <c r="K24">
         <v>365</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -2129,8 +2204,11 @@
       <c r="K25">
         <v>365</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2164,8 +2242,11 @@
       <c r="N26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2199,8 +2280,11 @@
       <c r="N27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -2231,8 +2315,11 @@
       <c r="K28">
         <v>365</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -2263,8 +2350,11 @@
       <c r="K29">
         <v>365</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -2298,8 +2388,11 @@
       <c r="N30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2333,8 +2426,11 @@
       <c r="N31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -2365,8 +2461,11 @@
       <c r="K32">
         <v>365</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2397,8 +2496,11 @@
       <c r="K33">
         <v>365</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2432,8 +2534,11 @@
       <c r="N34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -2467,8 +2572,11 @@
       <c r="N35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2499,8 +2607,11 @@
       <c r="K36">
         <v>365</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2531,8 +2642,11 @@
       <c r="K37">
         <v>365</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2566,8 +2680,11 @@
       <c r="N38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2601,8 +2718,11 @@
       <c r="N39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -2633,8 +2753,11 @@
       <c r="K40">
         <v>365</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2665,8 +2788,11 @@
       <c r="K41">
         <v>365</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2700,8 +2826,11 @@
       <c r="N42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2735,8 +2864,11 @@
       <c r="N43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2767,8 +2899,11 @@
       <c r="K44">
         <v>365</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2799,8 +2934,11 @@
       <c r="K45">
         <v>365</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2834,8 +2972,11 @@
       <c r="N46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -2869,8 +3010,11 @@
       <c r="N47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -2901,8 +3045,11 @@
       <c r="K48">
         <v>365</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -2933,8 +3080,11 @@
       <c r="K49">
         <v>365</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -2965,8 +3115,11 @@
       <c r="K50">
         <v>365</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -3000,8 +3153,11 @@
       <c r="N51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -3035,8 +3191,11 @@
       <c r="N52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -3067,8 +3226,11 @@
       <c r="K53">
         <v>365</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -3099,8 +3261,11 @@
       <c r="K54">
         <v>365</v>
       </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="O54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -3131,8 +3296,11 @@
       <c r="J55">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -3163,8 +3331,11 @@
       <c r="J56">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="O56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -3195,8 +3366,11 @@
       <c r="J57">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>44</v>
       </c>
@@ -3230,8 +3404,11 @@
       <c r="N58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -3265,8 +3442,11 @@
       <c r="N59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -3297,8 +3477,11 @@
       <c r="K60">
         <v>365</v>
       </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -3329,8 +3512,11 @@
       <c r="K61">
         <v>365</v>
       </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="O61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>44</v>
       </c>
@@ -3364,8 +3550,11 @@
       <c r="N62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="O62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>44</v>
       </c>
@@ -3399,8 +3588,11 @@
       <c r="N63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="O63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>44</v>
       </c>
@@ -3431,8 +3623,11 @@
       <c r="K64">
         <v>365</v>
       </c>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>44</v>
       </c>
@@ -3463,8 +3658,11 @@
       <c r="K65">
         <v>365</v>
       </c>
-    </row>
-    <row r="66" spans="1:14">
+      <c r="O65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>44</v>
       </c>
@@ -3498,8 +3696,11 @@
       <c r="N66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="O66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>44</v>
       </c>
@@ -3533,8 +3734,11 @@
       <c r="N67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="O67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>44</v>
       </c>
@@ -3565,29 +3769,27 @@
       <c r="K68">
         <v>365</v>
       </c>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="O68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:15">
       <c r="D70" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{94FE30C0-5EF8-574E-A880-777F68C22AA7}">
-    <sortState ref="A2:O68">
-      <sortCondition ref="H1:H68"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O136"/>
+  <dimension ref="A1:P136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3596,7 +3798,7 @@
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -3640,10 +3842,13 @@
         <v>67</v>
       </c>
       <c r="O1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -3659,11 +3864,11 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -3679,11 +3884,11 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -3699,44 +3904,44 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="4:4">
@@ -3944,10 +4149,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3955,7 +4160,7 @@
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -3999,10 +4204,13 @@
         <v>67</v>
       </c>
       <c r="O1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -4018,11 +4226,11 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -4038,11 +4246,11 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -4058,11 +4266,11 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -4078,11 +4286,11 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -4098,11 +4306,11 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -4118,7 +4326,7 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4129,10 +4337,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4141,7 +4349,7 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -4185,10 +4393,13 @@
         <v>67</v>
       </c>
       <c r="O1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -4204,11 +4415,11 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -4224,11 +4435,11 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -4244,11 +4455,11 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -4264,11 +4475,11 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -4284,11 +4495,11 @@
       <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -4304,7 +4515,7 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4318,15 +4529,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -4370,6 +4581,9 @@
         <v>67</v>
       </c>
       <c r="O1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" t="s">
         <v>70</v>
       </c>
     </row>
